--- a/data/award.xlsx
+++ b/data/award.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjysk\Box Sync\JY\blogging\cover_letter\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen-my.sharepoint.com/personal/tom_langbehn_uib_no/Documents/CV_TomLangbehn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9105A9AB-F18C-4C71-AAE2-319A1DFACCC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{9105A9AB-F18C-4C71-AAE2-319A1DFACCC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FCA589CB-DB7C-40CC-9A30-39D0BCA2824D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>what</t>
   </si>
@@ -37,160 +37,55 @@
     <t>why</t>
   </si>
   <si>
-    <t>The Pennsylvania State University</t>
-  </si>
-  <si>
-    <t>University Park, PA</t>
-  </si>
-  <si>
-    <t>Andrew V. Kozak Memorial Fellowship</t>
-  </si>
-  <si>
-    <t>The PDK Educational Foundation</t>
-  </si>
-  <si>
-    <t>Delta Gamma Golden Anchor Award</t>
-  </si>
-  <si>
-    <t>All Nations Church Graduate Scholarship</t>
-  </si>
-  <si>
-    <t>ANC Scholarship Foundation</t>
-  </si>
-  <si>
-    <t>Lake View Terrace, CA</t>
-  </si>
-  <si>
-    <t>Graduate Assistantship</t>
-  </si>
-  <si>
-    <t>Aug. 2016 - Present</t>
-  </si>
-  <si>
-    <t>Teaching and Learning with Technology</t>
-  </si>
-  <si>
-    <t>Graduate Student Travel Grant</t>
-  </si>
-  <si>
-    <t>College of Education</t>
-  </si>
-  <si>
-    <t>Summer Tuition Assistance Funding</t>
-  </si>
-  <si>
-    <t>Madison, WI</t>
-  </si>
-  <si>
-    <t>Microsoft Research</t>
-  </si>
-  <si>
-    <t>ACM Richard Tapia Celebration of Diversity in Computing Conference Scholarship</t>
-  </si>
-  <si>
-    <t>The National Science Foundation (NSF)</t>
-  </si>
-  <si>
-    <t>Atlanta, GA</t>
-  </si>
-  <si>
-    <t>Included free conference registration, shared hotel accommodations and a $500 travel stipend.</t>
-  </si>
-  <si>
-    <t>$500 travel stipend was awarded for ACM TAPIA 2017 Student Research Competition (SRC).</t>
-  </si>
-  <si>
-    <t>Seoul, South Korea</t>
-  </si>
-  <si>
-    <t>The Spencer Foundation</t>
-  </si>
-  <si>
-    <t>AERA Pre-Conference Travel Award</t>
-  </si>
-  <si>
-    <t>Toronto, ON, Canada</t>
-  </si>
-  <si>
-    <t>Oct. 2019</t>
-  </si>
-  <si>
-    <t>Apr. 2019</t>
-  </si>
-  <si>
-    <t>ACM Student Research Competition Travel Award</t>
-  </si>
-  <si>
-    <t>Outstanding Academic Award</t>
-  </si>
-  <si>
-    <t>2014 - 2019</t>
-  </si>
-  <si>
-    <t>Hyomyoung Scholarship</t>
-  </si>
-  <si>
-    <t>AccessSTEM Resume contest winners Award</t>
-  </si>
-  <si>
-    <t>Dec. 2019</t>
-  </si>
-  <si>
-    <t>Seattle, WA</t>
-  </si>
-  <si>
-    <t>AccessComputing, University of Washington</t>
-  </si>
-  <si>
-    <t>Mar. 2017</t>
-  </si>
-  <si>
-    <t>CSUN Conference Travel Award</t>
-  </si>
-  <si>
-    <t>Sponsored by The National Science Foundation (NSF).</t>
-  </si>
-  <si>
-    <t>Best Doctoral Proposal Fellowship</t>
-  </si>
-  <si>
-    <t>Sponsored by Cengage.</t>
-  </si>
-  <si>
-    <t>The First International Conference on Quantitative Ethnography</t>
-  </si>
-  <si>
-    <t>Sep. 2017</t>
-  </si>
-  <si>
-    <t>2020 NextGen Leaders</t>
-  </si>
-  <si>
-    <t>Feb. 2020 - Jul. 2020</t>
-  </si>
-  <si>
-    <t>Disability:IN</t>
-  </si>
-  <si>
-    <t>Alexandria, VA</t>
-  </si>
-  <si>
-    <t>Sep. 2020</t>
-  </si>
-  <si>
-    <t>Qualcomm Scholarship</t>
-  </si>
-  <si>
-    <t>ACM Richard Tapia Celebration of Diversity in Computing Conference</t>
-  </si>
-  <si>
-    <t>Virtual</t>
-  </si>
-  <si>
-    <t>Selected as one of the outstanding doctoral consortium proposals.</t>
-  </si>
-  <si>
-    <t>2015, 2017</t>
+    <t>Hamburg, Germany</t>
+  </si>
+  <si>
+    <t>Bremen, Germany</t>
+  </si>
+  <si>
+    <t>MARUM Research Award for Marine Science</t>
+  </si>
+  <si>
+    <t>IMBER ClimEco5 Summer School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Presentation Award </t>
+  </si>
+  <si>
+    <t>ICES Annual Science Conference 2019</t>
+  </si>
+  <si>
+    <t>MARUM Center for Marine Environmental Science</t>
+  </si>
+  <si>
+    <t>Natal, Brazil</t>
+  </si>
+  <si>
+    <t>Best Poster Award</t>
+  </si>
+  <si>
+    <t>YOUMARES 7 conference, German Society for Marine Research</t>
+  </si>
+  <si>
+    <t>Best Speaker Award</t>
+  </si>
+  <si>
+    <t>YOUMARES 6 conference, German Society for Marine Research</t>
+  </si>
+  <si>
+    <t>Best Student Poster</t>
+  </si>
+  <si>
+    <t>Fisheries Ecology Summer School, University of Iceland</t>
+  </si>
+  <si>
+    <t>Reykjavík, Iceland</t>
+  </si>
+  <si>
+    <t>awarded in recognition of an outstanding Masters</t>
+  </si>
+  <si>
+    <t>Student Choice and Special Mention Poster Award</t>
   </si>
 </sst>
 </file>
@@ -198,7 +93,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -684,10 +579,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1045,11 +943,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.5703125" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" customWidth="1"/>
+    <col min="5" max="5" width="87" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1066,238 +973,101 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>2019</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>2016</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>2016</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2015</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1">
-        <v>1500</v>
-      </c>
+      <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>2011</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>2017</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>2016</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E7">
+    <sortCondition descending="1" ref="B2:B7"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/data/award.xlsx
+++ b/data/award.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen-my.sharepoint.com/personal/tom_langbehn_uib_no/Documents/CV_TomLangbehn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen-my.sharepoint.com/personal/tom_langbehn_uib_no/Documents/TomLangbehn_CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{9105A9AB-F18C-4C71-AAE2-319A1DFACCC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FCA589CB-DB7C-40CC-9A30-39D0BCA2824D}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{9105A9AB-F18C-4C71-AAE2-319A1DFACCC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8C471011-2A98-4379-952E-90017709F3F5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,10 +82,10 @@
     <t>Reykjavík, Iceland</t>
   </si>
   <si>
-    <t>awarded in recognition of an outstanding Masters</t>
-  </si>
-  <si>
     <t>Student Choice and Special Mention Poster Award</t>
+  </si>
+  <si>
+    <t>Awarded in recognition of an outstanding Masters</t>
   </si>
 </sst>
 </file>
@@ -944,7 +944,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,7 +989,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>2016</v>
@@ -1029,7 +1029,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">

--- a/data/award.xlsx
+++ b/data/award.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen-my.sharepoint.com/personal/tom_langbehn_uib_no/Documents/TomLangbehn_CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{9105A9AB-F18C-4C71-AAE2-319A1DFACCC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8C471011-2A98-4379-952E-90017709F3F5}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{9105A9AB-F18C-4C71-AAE2-319A1DFACCC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{13AF7AE9-97F6-4B6F-A5CB-7598045D3FF7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>what</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Awarded in recognition of an outstanding Masters</t>
+  </si>
+  <si>
+    <t>order</t>
   </si>
 </sst>
 </file>
@@ -941,22 +944,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.5703125" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" customWidth="1"/>
-    <col min="5" max="5" width="87" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" customWidth="1"/>
+    <col min="6" max="6" width="87" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -964,108 +968,129 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2">
         <v>2019</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3">
         <v>2016</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4">
         <v>2016</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
         <v>2015</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6">
         <v>2015</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
         <v>2011</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E7">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
     <sortCondition descending="1" ref="B2:B7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/award.xlsx
+++ b/data/award.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen-my.sharepoint.com/personal/tom_langbehn_uib_no/Documents/TomLangbehn_CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{9105A9AB-F18C-4C71-AAE2-319A1DFACCC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{13AF7AE9-97F6-4B6F-A5CB-7598045D3FF7}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{9105A9AB-F18C-4C71-AAE2-319A1DFACCC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8B8B7E70-5CB4-4EF8-8D9D-67774E069CC3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>what</t>
   </si>
@@ -89,6 +100,15 @@
   </si>
   <si>
     <t>order</t>
+  </si>
+  <si>
+    <t>Runner-up Best Poster</t>
+  </si>
+  <si>
+    <t>MARmaED annual meeting</t>
+  </si>
+  <si>
+    <t>Banyuls-sur-Mer, France</t>
   </si>
 </sst>
 </file>
@@ -98,7 +118,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,13 +252,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -582,10 +595,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -944,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,116 +994,130 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B2">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>2015</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>2016</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>2019</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
-    <sortCondition descending="1" ref="B2:B7"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:F17">
+    <sortCondition descending="1" ref="B12:B17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
